--- a/Tools/excel2json/excel/UIPanel/PanelDefine.xlsx
+++ b/Tools/excel2json/excel/UIPanel/PanelDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="PanelDefine" sheetId="1" r:id="rId1"/>
@@ -47,37 +47,37 @@
     <t>LoginPanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/LoginPanel.prefab</t>
+    <t>UI/Prefabs/Login/LoginPanel.prefab</t>
   </si>
   <si>
     <t>RegisterPanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/RegisterPanel.prefab</t>
+    <t>UI/Prefabs/Login/RegisterPanel.prefab</t>
   </si>
   <si>
     <t>SelectRolePanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/SelectRolePanel.prefab</t>
+    <t>UI/Prefabs/SelectRole/SelectRolePanel.prefab</t>
   </si>
   <si>
     <t>CreateRolePanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/CreateRolePanel.prefab</t>
+    <t>UI/Prefabs/SelectRole/CreateRolePanel.prefab</t>
   </si>
   <si>
     <t>RoleListItem</t>
   </si>
   <si>
-    <t>UI/Prefabs/RoleListItem.prefab</t>
+    <t>UI/Prefabs/SelectRole/RoleListItem.prefab</t>
   </si>
   <si>
     <t>CombatPanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/CombatPanel.prefab</t>
+    <t>UI/Prefabs/Combat/CombatPanel.prefab</t>
   </si>
   <si>
     <t>KnapsackPanel</t>
@@ -89,13 +89,13 @@
     <t>VocationItem</t>
   </si>
   <si>
-    <t>UI/Prefabs/VocationItem.prefab</t>
+    <t>UI/Prefabs/SelectRole/VocationItem.prefab</t>
   </si>
   <si>
     <t>ServerPanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/Server/ServerPanel.prefab</t>
+    <t>UI/Prefabs/SelectWorld/ServerPanel.prefab</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>

--- a/Tools/excel2json/excel/UIPanel/PanelDefine.xlsx
+++ b/Tools/excel2json/excel/UIPanel/PanelDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12960"/>
+    <workbookView windowWidth="28785" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="PanelDefine" sheetId="1" r:id="rId1"/>
@@ -92,10 +92,10 @@
     <t>UI/Prefabs/SelectRole/VocationItem.prefab</t>
   </si>
   <si>
-    <t>ServerPanel</t>
-  </si>
-  <si>
-    <t>UI/Prefabs/SelectWorld/ServerPanel.prefab</t>
+    <t>SelectWorldPanel</t>
+  </si>
+  <si>
+    <t>UI/Prefabs/SelectWorld/SelectWorldPanel.prefab</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>

--- a/Tools/excel2json/excel/UIPanel/PanelDefine.xlsx
+++ b/Tools/excel2json/excel/UIPanel/PanelDefine.xlsx
@@ -59,19 +59,19 @@
     <t>SelectRolePanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/SelectRole/SelectRolePanel.prefab</t>
+    <t>UI/Prefabs/SelectCharacter/SelectRolePanel.prefab</t>
   </si>
   <si>
     <t>CreateRolePanel</t>
   </si>
   <si>
-    <t>UI/Prefabs/SelectRole/CreateRolePanel.prefab</t>
+    <t>UI/Prefabs/SelectCharacter/CreateRolePanel.prefab</t>
   </si>
   <si>
     <t>RoleListItem</t>
   </si>
   <si>
-    <t>UI/Prefabs/SelectRole/RoleListItem.prefab</t>
+    <t>UI/Prefabs/SelectCharacter/RoleListItem.prefab</t>
   </si>
   <si>
     <t>CombatPanel</t>
@@ -89,7 +89,7 @@
     <t>VocationItem</t>
   </si>
   <si>
-    <t>UI/Prefabs/SelectRole/VocationItem.prefab</t>
+    <t>UI/Prefabs/SelectCharacter/VocationItem.prefab</t>
   </si>
   <si>
     <t>SelectWorldPanel</t>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>

--- a/Tools/excel2json/excel/UIPanel/PanelDefine.xlsx
+++ b/Tools/excel2json/excel/UIPanel/PanelDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>PanelName</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>UI/Prefabs/SelectWorld/SelectWorldPanel.prefab</t>
+  </si>
+  <si>
+    <t>SettingPanel</t>
+  </si>
+  <si>
+    <t>UI/Prefabs/Setting/SettingPanel.prefab</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>
@@ -1169,6 +1175,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tools/excel2json/excel/UIPanel/PanelDefine.xlsx
+++ b/Tools/excel2json/excel/UIPanel/PanelDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="12975"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="PanelDefine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>PanelName</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>UI/Prefabs/Setting/SettingPanel.prefab</t>
+  </si>
+  <si>
+    <t>TaskPanel</t>
+  </si>
+  <si>
+    <t>UI/Prefabs/Task/TaskPanel.prefab</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1068,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1"/>
@@ -1183,6 +1189,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
